--- a/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>WOOF</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,154 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44044</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43771</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43680</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1337700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1260000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2322500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1148700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1093100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2192800</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>768400</v>
+      </c>
+      <c r="E9" s="3">
         <v>718600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1326500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>650800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>620700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1256500</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>569300</v>
+      </c>
+      <c r="E10" s="3">
         <v>541400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>996000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>497900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>472400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>936300</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,28 +886,31 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>20600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>15900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -898,37 +918,43 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1288300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1214000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2241100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1107500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1069200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2147200</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E18" s="3">
         <v>46000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>81400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>41200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>45600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,153 +1041,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E21" s="3">
         <v>89000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>167700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>85200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>67900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>131400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="3">
         <v>53800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>115300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>60800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>63200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>129100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-33600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-39200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-83300</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-8400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-19800</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-63500</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E27" s="3">
         <v>3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-60500</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1423,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E33" s="3">
         <v>3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-60500</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E35" s="3">
         <v>3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-60500</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44044</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43771</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43680</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,20 +1618,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>111400</v>
+      </c>
+      <c r="E41" s="3">
         <v>195800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>168900</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,20 +1680,23 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E43" s="3">
         <v>40500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36700</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,20 +1712,23 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>538700</v>
+      </c>
+      <c r="E44" s="3">
         <v>541400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>489100</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,20 +1744,23 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E45" s="3">
         <v>96000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,20 +1776,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>777500</v>
+      </c>
+      <c r="E46" s="3">
         <v>873600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>755900</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1808,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,20 +1840,23 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1955700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1996600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2043400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,20 +1872,23 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3205000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3205200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3205400</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,20 +1968,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E52" s="3">
         <v>128400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>120100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,20 +2032,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6075700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6203800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6124800</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,20 +2094,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>339500</v>
+      </c>
+      <c r="E57" s="3">
         <v>347800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>274200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,20 +2124,23 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
         <v>27400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>27600</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,20 +2156,23 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>533600</v>
+      </c>
+      <c r="E59" s="3">
         <v>558100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>555700</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,20 +2188,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>875300</v>
+      </c>
+      <c r="E60" s="3">
         <v>933300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>857500</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,20 +2220,23 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1657700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3210300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3235900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2109,20 +2252,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1487400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1514600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1493700</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,20 +2380,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4006900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5645400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5575600</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,20 +2554,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-800800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-804200</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,20 +2682,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2068800</v>
+      </c>
+      <c r="E76" s="3">
         <v>558400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>549200</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44044</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43771</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43680</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E81" s="3">
         <v>3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-60500</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +2831,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E83" s="3">
         <v>42900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>86000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>43900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>85600</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3021,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E89" s="3">
         <v>109100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>92400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>144600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-29800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3069,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-63300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-46200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-50000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-43400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-75800</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3163,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-47200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-48700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-43800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-75500</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3337,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-32100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-120700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>46700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>70900</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3401,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="E102" s="3">
         <v>29800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-34400</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>WOOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,167 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44044</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43862</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43771</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43680</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1415000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1337700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1260000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2322500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1148700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1093100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2192800</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>818000</v>
+      </c>
+      <c r="E9" s="3">
         <v>768400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>718600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1326500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>650800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>620700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1256500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>597000</v>
+      </c>
+      <c r="E10" s="3">
         <v>569300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>541400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>996000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>497900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>472400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>936300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,31 +906,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E14" s="3">
         <v>20600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>15900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -921,40 +941,46 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1388100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1288300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1214000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2241100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1107500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1069200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2147200</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E18" s="3">
         <v>49400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>46000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>81400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>41200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>45600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,168 +1075,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E21" s="3">
         <v>95600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>89000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>167700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>85200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>67900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>131400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E22" s="3">
         <v>50000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>53800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>115300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>60800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>63200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>129100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-33600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-39200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-83300</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>10200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-8400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-19800</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-63500</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-28200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-60500</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-28200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-60500</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-28200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-60500</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44044</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43862</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43771</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43680</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,23 +1705,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E41" s="3">
         <v>111400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>195800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>168900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1738,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,23 +1773,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E43" s="3">
         <v>41800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>36700</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,23 +1808,26 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>574700</v>
+      </c>
+      <c r="E44" s="3">
         <v>538700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>541400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>489100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,23 +1843,26 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>89100</v>
+      </c>
+      <c r="E45" s="3">
         <v>85600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>96000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>61200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,23 +1878,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>875900</v>
+      </c>
+      <c r="E46" s="3">
         <v>777500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>873600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>755900</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1913,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,23 +1948,26 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1970200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1955700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1996600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2043400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,23 +1983,26 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3204900</v>
+      </c>
+      <c r="E49" s="3">
         <v>3205000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3205200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3205400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,23 +2088,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>142300</v>
+      </c>
+      <c r="E52" s="3">
         <v>137500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>128400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>120100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2123,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,23 +2158,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6193400</v>
+      </c>
+      <c r="E54" s="3">
         <v>6075700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6203800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6124800</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,23 +2225,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>352400</v>
+      </c>
+      <c r="E57" s="3">
         <v>339500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>347800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>274200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,23 +2258,26 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>27400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>27600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2159,23 +2293,26 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>622500</v>
+      </c>
+      <c r="E59" s="3">
         <v>533600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>558100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>555700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,23 +2328,26 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>995200</v>
+      </c>
+      <c r="E60" s="3">
         <v>875300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>933300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>857500</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,23 +2363,26 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1649500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1657700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3210300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3235900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2255,23 +2398,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1476500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1487400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1514600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1493700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2433,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,23 +2538,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4106200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4006900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5645400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5575600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,23 +2728,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-800800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-804200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,23 +2868,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2087200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2068800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>558400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>549200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44044</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43862</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43771</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43680</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-28200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-60500</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E83" s="3">
         <v>45900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>86000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>43900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>85600</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E89" s="3">
         <v>67100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>109100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>92400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>144600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-29800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-63300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-46200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-50000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-75800</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-61300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-47200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-48700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-43800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-75500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,40 +3583,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-95500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-32100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-120700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>46700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>70900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,36 +3653,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-89600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>29800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-34400</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>WOOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44317</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44044</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43862</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43771</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43680</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1434500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1415000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1337700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1260000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2322500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1148700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1093100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2192800</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>835100</v>
+      </c>
+      <c r="E9" s="3">
         <v>818000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>768400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>718600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1326500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>650800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>620700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1256500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>599400</v>
+      </c>
+      <c r="E10" s="3">
         <v>597000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>569300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>541400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>996000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>497900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>472400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>936300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,34 +926,37 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>20800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>20600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>15900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -944,43 +964,49 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1361100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1388100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1288300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1214000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2241100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1107500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1069200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2147200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E18" s="3">
         <v>26900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>49400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>81400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>41200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>45600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,183 +1109,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>45200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>159900</v>
+      </c>
+      <c r="E21" s="3">
         <v>68500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>95600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>89000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>167700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>85200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>67900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>131400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E22" s="3">
         <v>20500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>50000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>53800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>115300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>60800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>63200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>129100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E23" s="3">
         <v>6400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-33600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-39200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-83300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-8400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-19800</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E26" s="3">
         <v>3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-63500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E27" s="3">
         <v>7600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-60500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-45200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E33" s="3">
         <v>7600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-60500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E35" s="3">
         <v>7600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-60500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44317</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44044</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43862</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43771</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43680</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,26 +1792,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>203400</v>
+      </c>
+      <c r="E41" s="3">
         <v>174000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>111400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>195800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>168900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,26 +1866,29 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E43" s="3">
         <v>38100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>41800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>40500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36700</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,26 +1904,29 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>628500</v>
+      </c>
+      <c r="E44" s="3">
         <v>574700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>538700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>541400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>489100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1846,26 +1942,29 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E45" s="3">
         <v>89100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>85600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>96000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>61200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,26 +1980,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>944200</v>
+      </c>
+      <c r="E46" s="3">
         <v>875900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>777500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>873600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>755900</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,26 +2056,29 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1968900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1970200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1955700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1996600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2043400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,26 +2094,29 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3208000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3204900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3205000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3205200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3205400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,26 +2208,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>194100</v>
+      </c>
+      <c r="E52" s="3">
         <v>142300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>137500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>128400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>120100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,26 +2284,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6315200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6193400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6075700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6203800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6124800</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,26 +2356,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>406700</v>
+      </c>
+      <c r="E57" s="3">
         <v>352400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>339500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>347800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>274200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2270,17 +2404,17 @@
         <v>20200</v>
       </c>
       <c r="E58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>27400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,26 +2430,29 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>582900</v>
+      </c>
+      <c r="E59" s="3">
         <v>622500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>533600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>558100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>555700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,26 +2468,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1009800</v>
+      </c>
+      <c r="E60" s="3">
         <v>995200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>875300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>933300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>857500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,26 +2506,29 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1646500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1649500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1657700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3210300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3235900</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2401,26 +2544,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1499500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1476500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1487400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1514600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1493700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,26 +2696,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4140500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4106200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4006900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5645400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5575600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,26 +2902,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-800800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-804200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,26 +3054,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2174600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2087200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2068800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>558400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>549200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44317</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44044</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43862</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43771</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43680</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E81" s="3">
         <v>7600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-60500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E83" s="3">
         <v>41600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>45900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>86000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>85600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E89" s="3">
         <v>115000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>67100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>109100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>92400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>144600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-29800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-47400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-63300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-46200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-50000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-43400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-75800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-47400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-61300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-47200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-48700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-43800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-75500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-95500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-32100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-120700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>46700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>70900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E102" s="3">
         <v>60400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-89600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>29800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-34400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>WOOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44317</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44226</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44044</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43862</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43771</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43680</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1443300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1434500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1415000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1337700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1260000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2322500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1148700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1093100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2192800</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>848600</v>
+      </c>
+      <c r="E9" s="3">
         <v>835100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>818000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>768400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>718600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1326500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>650800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>620700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1256500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>594700</v>
+      </c>
+      <c r="E10" s="3">
         <v>599400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>597000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>569300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>541400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>996000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>497900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>472400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>936300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -938,28 +958,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>20800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>15900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -967,8 +987,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,35 +1001,38 @@
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1381300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1361100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1388100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1288300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1214000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2241100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1107500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1069200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2147200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E18" s="3">
         <v>73400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>49400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>81400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>41200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>23900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>45600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,198 +1143,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E20" s="3">
         <v>45200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>124500</v>
+      </c>
+      <c r="E21" s="3">
         <v>159900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>68500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>95600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>89000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>167700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>85200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>67900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>131400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E22" s="3">
         <v>19200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>20500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>53800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>115300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>60800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>63200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>129100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E23" s="3">
         <v>99400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-33600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-39200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-83300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E24" s="3">
         <v>27000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-8400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-19800</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E26" s="3">
         <v>72400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-28000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-63500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E27" s="3">
         <v>75100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-60500</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-45200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E33" s="3">
         <v>75100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-60500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E35" s="3">
         <v>75100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-60500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44317</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44226</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44044</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43862</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43771</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43680</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3">
         <v>203400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>174000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>111400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>195800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>168900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,29 +1959,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E43" s="3">
         <v>39900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>38100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>41800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>40500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,29 +2000,32 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>644400</v>
+      </c>
+      <c r="E44" s="3">
         <v>628500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>574700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>538700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>541400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>489100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,29 +2041,32 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E45" s="3">
         <v>72400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>89100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>85600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>96000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>61200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,29 +2082,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>989900</v>
+      </c>
+      <c r="E46" s="3">
         <v>944200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>875900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>777500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>873600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>755900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,29 +2164,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2051700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1968900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1970200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1955700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1996600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2043400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,29 +2205,32 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3208700</v>
+      </c>
+      <c r="E49" s="3">
         <v>3208000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3204900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3205000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3205200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3205400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,29 +2328,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>219400</v>
+      </c>
+      <c r="E52" s="3">
         <v>194100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>142300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>137500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>128400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>120100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6469500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6315200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6193400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6075700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6203800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6124800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2487,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>380200</v>
+      </c>
+      <c r="E57" s="3">
         <v>406700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>352400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>339500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>347800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>274200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,29 +2526,32 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="E58" s="3">
         <v>20200</v>
       </c>
       <c r="F58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>27600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,29 +2567,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>631100</v>
+      </c>
+      <c r="E59" s="3">
         <v>582900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>622500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>533600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>558100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>555700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2608,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1031500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1009800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>995200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>875300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>933300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>857500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,29 +2649,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1643400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1646500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1649500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1657700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3210300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3235900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2547,29 +2690,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1573700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1499500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1476500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1487400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1514600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1493700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4232100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4140500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4106200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4006900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5645400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5575600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,29 +3076,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E72" s="3">
         <v>60400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-800800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-804200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2237400</v>
+      </c>
+      <c r="E76" s="3">
         <v>2174600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2087200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2068800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>558400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>549200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44317</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44226</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44044</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43862</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43771</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43680</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E81" s="3">
         <v>75100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-60500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E83" s="3">
         <v>41200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>45900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>86000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>85600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E89" s="3">
         <v>87400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>115000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>67100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>109100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>92400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>144600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-29800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-52500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-47400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-63300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-46200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-50000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-43400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-75800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-55200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-47400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-61300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-47200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-48700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-75500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-95500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-32100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-120700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>46700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>70900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E102" s="3">
         <v>28200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>60400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-89600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>29800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>24600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-34400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>WOOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
         <v>44499</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44317</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44226</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44044</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43862</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43771</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43680</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1514400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1443300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1434500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1415000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1337700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1260000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2322500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1148700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1093100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2192800</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>878900</v>
+      </c>
+      <c r="E9" s="3">
         <v>848600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>835100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>818000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>768400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>718600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1326500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>650800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>620700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1256500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>635500</v>
+      </c>
+      <c r="E10" s="3">
         <v>594700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>599400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>597000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>569300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>541400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>996000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>497900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>472400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>936300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -961,28 +981,28 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>20800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>20600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>15900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,35 +1027,38 @@
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1431500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1381300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1361100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1388100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1288300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1214000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2241100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1107500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1069200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2147200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E18" s="3">
         <v>62000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>73400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>26900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>49400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>46000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>81400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>41200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>45600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E20" s="3">
         <v>19800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>45200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E21" s="3">
         <v>124500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>159900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>68500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>95600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>89000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>167700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>85200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>67900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>131400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E22" s="3">
         <v>18800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>20500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>53800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>115300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>60800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>63200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>129100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E23" s="3">
         <v>63000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>99400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-33600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-39200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-83300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E24" s="3">
         <v>14100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>27000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-19800</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E26" s="3">
         <v>48900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>72400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-63500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E27" s="3">
         <v>52800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>75100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-60500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-19800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-45200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E33" s="3">
         <v>52800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>75100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-60500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E35" s="3">
         <v>52800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>75100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-60500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
         <v>44499</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44317</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44226</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44044</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43862</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43771</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43680</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,32 +1966,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" s="3">
+        <v>211600</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3">
         <v>203400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>174000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>111400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>195800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>168900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,32 +2052,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E43" s="3">
         <v>267000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>38100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>41800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>40500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,32 +2096,35 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>675100</v>
+      </c>
+      <c r="E44" s="3">
         <v>644400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>628500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>574700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>538700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>541400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>489100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,32 +2140,35 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>128400</v>
+      </c>
+      <c r="E45" s="3">
         <v>78500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>72400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>89100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>85600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>96000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>61200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,32 +2184,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1070800</v>
+      </c>
+      <c r="E46" s="3">
         <v>989900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>944200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>875900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>777500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>873600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>755900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,32 +2272,35 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2065400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2051700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1968900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1970200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1955700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1996600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2043400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,32 +2316,35 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3209000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3208700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3208000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3204900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3205000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3205200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3205400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,32 +2448,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>152800</v>
+      </c>
+      <c r="E52" s="3">
         <v>219400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>194100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>142300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>137500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>128400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>120100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,32 +2536,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6497900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6469500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6315200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6193400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6075700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6203800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6124800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,32 +2618,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E57" s="3">
         <v>380200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>406700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>352400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>339500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>347800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>274200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,32 +2660,35 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E58" s="3">
         <v>20300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>20200</v>
       </c>
       <c r="F58" s="3">
         <v>20200</v>
       </c>
       <c r="G58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>27400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>27600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,32 +2704,35 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>627400</v>
+      </c>
+      <c r="E59" s="3">
         <v>631100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>582900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>622500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>533600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>558100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>555700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,32 +2748,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1053100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1031500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1009800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>995200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>875300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>933300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>857500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,32 +2792,35 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1640400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1643400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1646500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1649500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1657700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3210300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3235900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2693,32 +2836,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1548600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1573700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1499500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1476500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1487400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1514600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1493700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,32 +3012,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4223900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4232100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4140500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4106200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4006900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5645400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5575600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,32 +3250,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E72" s="3">
         <v>113200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>60400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-800800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-804200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,32 +3426,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2274000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2237400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2174600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2087200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2068800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>558400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>549200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
         <v>44499</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44317</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44226</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44044</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43862</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43771</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43680</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E81" s="3">
         <v>52800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>75100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-60500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E83" s="3">
         <v>42800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>45900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>86000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>85600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E89" s="3">
         <v>86000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>87400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>115000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>67100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>109100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>92400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>144600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-29800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-64400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-52500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-47400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-63300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-46200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-50000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-43400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-75800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-65200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-55200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-47400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-61300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-47200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-48700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-75500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-95500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-32100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-120700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>46700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>70900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E102" s="3">
         <v>17200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>60400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-89600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>29800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>24600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-34400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>WOOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44499</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44317</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44226</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44044</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43862</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43771</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43680</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1476000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1514400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1443300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1434500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1415000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1337700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1260000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2322500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1148700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1093100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2192800</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>868300</v>
+      </c>
+      <c r="E9" s="3">
         <v>878900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>848600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>835100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>818000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>768400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>718600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1326500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>650800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>620700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1256500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>607700</v>
+      </c>
+      <c r="E10" s="3">
         <v>635500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>594700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>599400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>597000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>569300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>541400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>996000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>497900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>472400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>936300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,28 +1003,28 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>20800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>20600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>15900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,35 +1052,38 @@
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>500</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1426100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1431500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1381300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1361100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1388100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1288300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1214000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2241100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1107500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1069200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2147200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E18" s="3">
         <v>82900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>62000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>73400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>49400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>46000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>81400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>41200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>45600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-30500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>19800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>45200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E21" s="3">
         <v>99300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>124500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>159900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>68500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>95600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>89000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>167700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>85200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>67900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>131400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E22" s="3">
         <v>18900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>20500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>50000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>53800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>115300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>63200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>129100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E23" s="3">
         <v>33600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>63000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>99400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-33600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-39200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-83300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>9700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-8400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-19800</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E26" s="3">
         <v>23900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>48900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>72400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-63500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E27" s="3">
         <v>29000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>52800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>75100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-28200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-60500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>30500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-19800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-45200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E33" s="3">
         <v>29000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>52800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>75100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-28200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-60500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E35" s="3">
         <v>29000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>52800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>75100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-28200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-60500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44499</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44317</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44226</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44044</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43862</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43771</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43680</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2052,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>190900</v>
+      </c>
+      <c r="E41" s="3">
         <v>211600</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3">
+        <v>221500</v>
+      </c>
+      <c r="G41" s="3">
         <v>203400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>174000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>111400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>195800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>168900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,35 +2144,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E43" s="3">
         <v>55600</v>
       </c>
-      <c r="E43" s="3">
-        <v>267000</v>
-      </c>
       <c r="F43" s="3">
+        <v>45500</v>
+      </c>
+      <c r="G43" s="3">
         <v>39900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>38100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>41800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>40500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>36700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,35 +2191,38 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>682000</v>
+      </c>
+      <c r="E44" s="3">
         <v>675100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>644400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>628500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>574700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>538700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>541400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>489100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2143,35 +2238,38 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>133700</v>
+      </c>
+      <c r="E45" s="3">
         <v>128400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>78500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>72400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>89100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>85600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>96000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>61200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,35 +2285,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1048900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1070800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>989900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>944200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>875900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>777500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>873600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>755900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,35 +2379,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2092200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2065400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2051700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1968900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1970200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1955700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1996600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2043400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,26 +2438,26 @@
         <v>3209000</v>
       </c>
       <c r="E49" s="3">
+        <v>3209000</v>
+      </c>
+      <c r="F49" s="3">
         <v>3208700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3208000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3204900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3205000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3205200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3205400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2567,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E52" s="3">
         <v>152800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>219400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>194100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>142300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>137500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>128400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>120100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2661,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6505800</v>
+      </c>
+      <c r="E54" s="3">
         <v>6497900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6469500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6315200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6193400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6075700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6203800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6124800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2748,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>392700</v>
+      </c>
+      <c r="E57" s="3">
         <v>404000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>380200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>406700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>352400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>339500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>347800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>274200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,26 +2805,26 @@
         <v>21800</v>
       </c>
       <c r="E58" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F58" s="3">
         <v>20300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>20200</v>
       </c>
       <c r="G58" s="3">
         <v>20200</v>
       </c>
       <c r="H58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>27400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>27600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,35 +2840,38 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>597400</v>
+      </c>
+      <c r="E59" s="3">
         <v>627400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>631100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>582900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>622500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>533600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>558100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>555700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,35 +2887,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1011800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1053100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1031500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1009800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>995200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>875300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>933300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>857500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,35 +2934,38 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1637400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1640400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1643400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1646500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1649500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1657700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3210300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3235900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,35 +2981,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1568900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1548600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1573700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1499500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1476500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1487400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1514600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1493700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3169,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4199000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4223900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4232100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4140500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4106200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4006900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5645400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5575600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3423,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>166900</v>
+      </c>
+      <c r="E72" s="3">
         <v>142200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>113200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>60400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-800800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-804200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3611,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2306800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2274000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2237400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2174600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2087200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2068800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>558400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>549200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44499</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44317</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44226</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44044</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43862</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43771</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43680</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E81" s="3">
         <v>29000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>52800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>75100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-28200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-60500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E83" s="3">
         <v>46800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>45900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>42900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>86000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>85600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E89" s="3">
         <v>69800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>86000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>87400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>115000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>67100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>109100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>92400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>144600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-29800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-74800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-64400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-52500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-47400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-63300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-46200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-50000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-43400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-75800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-69300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-55200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-47400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-61300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-47200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-48700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-75500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-95500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-32100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-120700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>46700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>70900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>60400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-89600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>29800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>24600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>WOOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44590</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44499</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44317</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44226</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44044</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43862</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43771</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43680</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1480800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1476000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1514400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1443300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1434500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1415000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1337700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1260000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2322500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1148700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1093100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2192800</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>886300</v>
+      </c>
+      <c r="E9" s="3">
         <v>868300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>878900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>848600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>835100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>818000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>768400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>718600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1326500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>650800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>620700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1256500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>594500</v>
+      </c>
+      <c r="E10" s="3">
         <v>607700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>635500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>594700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>599400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>597000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>569300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>541400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>996000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>497900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>472400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>936300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,28 +1026,28 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>20800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>15900</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,35 +1078,38 @@
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>500</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1430800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1426100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1431500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1381300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1361100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1388100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1288300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1214000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2241100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1107500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1069200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2147200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E18" s="3">
         <v>49900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>82900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>62000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>73400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>49400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>46000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>81400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>41200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>45600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-30500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>19800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>45200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E21" s="3">
         <v>97200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>99300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>124500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>159900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>68500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>95600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>89000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>167700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>85200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>67900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>131400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E22" s="3">
         <v>19600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>20500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>50000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>53800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>115300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>63200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>129100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E23" s="3">
         <v>30600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>33600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>63000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>99400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-39200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-83300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E24" s="3">
         <v>10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-8400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-19800</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E26" s="3">
         <v>20600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>23900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>48900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>72400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-28000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-63500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E27" s="3">
         <v>24700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>29000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>52800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>75100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-28200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-60500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>30500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-19800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-45200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E33" s="3">
         <v>24700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>29000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>52800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>75100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-28200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-60500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E35" s="3">
         <v>24700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>29000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>52800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>75100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-28200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-60500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44590</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44499</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44317</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44226</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44044</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43862</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43771</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43680</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E41" s="3">
         <v>190900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>211600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>221500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>203400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>174000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>111400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>195800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>168900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,38 +2237,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E43" s="3">
         <v>42200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>55600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>45500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>41800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>40500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,38 +2287,41 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>723300</v>
+      </c>
+      <c r="E44" s="3">
         <v>682000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>675100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>644400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>628500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>574700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>538700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>541400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>489100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,38 +2337,41 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E45" s="3">
         <v>133700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>128400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>78500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>72400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>89100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>85600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>96000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1013800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1048900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1070800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>989900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>944200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>875900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>777500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>873600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>755900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,38 +2487,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2150100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2092200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2065400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2051700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1968900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1970200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1955700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1996600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2043400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,38 +2537,41 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3209000</v>
+        <v>3211800</v>
       </c>
       <c r="E49" s="3">
         <v>3209000</v>
       </c>
       <c r="F49" s="3">
+        <v>3209000</v>
+      </c>
+      <c r="G49" s="3">
         <v>3208700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3208000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3204900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3205000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3205200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3205400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,38 +2687,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>166700</v>
+      </c>
+      <c r="E52" s="3">
         <v>155700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>152800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>219400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>194100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>142300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>137500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>128400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>120100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6542400</v>
+      </c>
+      <c r="E54" s="3">
         <v>6505800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6497900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6469500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6315200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6193400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6075700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6203800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6124800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,38 +2879,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>416600</v>
+      </c>
+      <c r="E57" s="3">
         <v>392700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>404000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>380200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>406700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>352400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>339500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>347800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>274200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,38 +2927,41 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21800</v>
+        <v>22300</v>
       </c>
       <c r="E58" s="3">
         <v>21800</v>
       </c>
       <c r="F58" s="3">
+        <v>21800</v>
+      </c>
+      <c r="G58" s="3">
         <v>20300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>20200</v>
       </c>
       <c r="H58" s="3">
         <v>20200</v>
       </c>
       <c r="I58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>27400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,38 +2977,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>596600</v>
+      </c>
+      <c r="E59" s="3">
         <v>597400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>627400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>631100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>582900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>622500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>533600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>558100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>555700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3027,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1035400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1011800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1053100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1031500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1009800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>995200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>875300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>933300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>857500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,38 +3077,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1634300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1637400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1640400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1643400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1646500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1649500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1657700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3210300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3235900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2984,38 +3127,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1593500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1568900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1548600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1573700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1499500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1476500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1487400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1514600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1493700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4263300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4199000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4223900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4232100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4140500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4106200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4006900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5645400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5575600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3597,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E72" s="3">
         <v>166900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>142200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>113200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>60400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-800800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-804200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2279100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2306800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2274000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2237400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2174600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2087200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2068800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>558400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>549200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44590</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44499</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44317</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44226</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44044</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43862</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43771</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43680</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E81" s="3">
         <v>24700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>29000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>52800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>75100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-28200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-60500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E83" s="3">
         <v>47000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>46800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>41600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>45900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>42900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>86000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>85600</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E89" s="3">
         <v>57500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>69800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>86000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>87400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>115000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>67100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>109100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>92400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>144600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-29800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-65900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-74800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-64400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-52500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-47400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-63300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-50000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-43400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-75800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-65900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-69300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-65200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-55200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-47400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-61300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-47200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-48700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-75500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-95500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-32100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-120700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>46700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>70900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>60400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-89600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>29800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>24600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-34400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>WOOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E7" s="2">
         <v>44772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44590</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44317</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44226</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44044</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43862</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43771</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43680</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1501200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1480800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1476000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1514400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1443300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1434500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1415000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1337700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1260000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2322500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1148700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1093100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2192800</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>903500</v>
+      </c>
+      <c r="E9" s="3">
         <v>886300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>868300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>878900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>848600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>835100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>818000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>768400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>718600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1326500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>650800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>620700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1256500</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>597700</v>
+      </c>
+      <c r="E10" s="3">
         <v>594500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>607700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>635500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>594700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>599400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>597000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>569300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>541400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>996000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>497900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>472400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>936300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1029,28 +1049,28 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>20800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>20600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>15900</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,35 +1104,38 @@
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>500</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1453200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1430800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1426100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1431500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1381300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1361100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1388100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1288300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1214000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2241100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1107500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1069200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2147200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E18" s="3">
         <v>50000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>49900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>82900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>62000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>73400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>49400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>81400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>41200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>23900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>45600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-30500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>19800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>45200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E21" s="3">
         <v>88500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>97200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>99300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>124500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>159900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>68500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>95600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>89000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>167700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>85200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>67900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>131400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E22" s="3">
         <v>21800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>20500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>50000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>53800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>115300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>60800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>63200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>129100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E23" s="3">
         <v>18100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>30600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>63000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>99400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-33600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-39200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-83300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E24" s="3">
         <v>6600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>27000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-8400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-19800</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E26" s="3">
         <v>11400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>23900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>48900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>72400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-28000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-30800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-63500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E27" s="3">
         <v>13500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>29000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>52800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>75100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-28200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-60500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>10100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>30500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-19800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-45200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E33" s="3">
         <v>13500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>29000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>52800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>75100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-28200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-60500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E35" s="3">
         <v>13500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>29000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>52800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>75100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-28200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-60500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E38" s="2">
         <v>44772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44590</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44317</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44226</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44044</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43862</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43771</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43680</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>148700</v>
+      </c>
+      <c r="E41" s="3">
         <v>125200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>190900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>211600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>221500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>203400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>174000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>111400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>195800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>168900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,41 +2330,44 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E43" s="3">
         <v>44800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>55600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>45500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>38100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>41800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,41 +2383,44 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>723400</v>
+      </c>
+      <c r="E44" s="3">
         <v>723300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>682000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>675100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>644400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>628500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>574700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>538700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>541400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>489100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2340,41 +2436,44 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E45" s="3">
         <v>120500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>133700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>128400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>78500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>72400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>89100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>85600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>96000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1019000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1013800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1048900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1070800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>989900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>944200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>875900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>777500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>873600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>755900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,41 +2595,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2169900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2150100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2092200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2065400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2051700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1968900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1970200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1955700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1996600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2043400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,41 +2648,44 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3216900</v>
+      </c>
+      <c r="E49" s="3">
         <v>3211800</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3209000</v>
       </c>
       <c r="F49" s="3">
         <v>3209000</v>
       </c>
       <c r="G49" s="3">
+        <v>3209000</v>
+      </c>
+      <c r="H49" s="3">
         <v>3208700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3208000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3204900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3205000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3205200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3205400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,41 +2807,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E52" s="3">
         <v>166700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>155700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>152800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>219400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>194100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>142300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>137500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>128400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>120100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6576900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6542400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6505800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6497900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6469500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6315200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6193400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6075700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6203800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6124800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>384600</v>
+      </c>
+      <c r="E57" s="3">
         <v>416600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>392700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>404000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>380200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>406700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>352400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>339500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>347800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>274200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,41 +3061,44 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E58" s="3">
         <v>22300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>21800</v>
       </c>
       <c r="F58" s="3">
         <v>21800</v>
       </c>
       <c r="G58" s="3">
+        <v>21800</v>
+      </c>
+      <c r="H58" s="3">
         <v>20300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>20200</v>
       </c>
       <c r="I58" s="3">
         <v>20200</v>
       </c>
       <c r="J58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,41 +3114,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>650000</v>
+      </c>
+      <c r="E59" s="3">
         <v>596600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>597400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>627400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>631100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>582900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>622500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>533600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>558100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>555700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1057200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1035400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1011800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1053100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1031500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1009800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>995200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>875300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>933300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>857500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,41 +3220,44 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1631300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1634300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1637400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1640400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1643400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1646500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1649500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1657700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3210300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3235900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3130,41 +3273,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1560500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1593500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1568900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1548600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1573700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1499500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1476500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1487400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1514600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1493700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4249000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4263300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4199000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4223900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4232100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4140500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4106200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4006900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5645400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5575600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3771,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>200200</v>
+      </c>
+      <c r="E72" s="3">
         <v>180300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>166900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>142200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>113200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>60400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-800800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-804200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2327900</v>
+      </c>
+      <c r="E76" s="3">
         <v>2279100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2306800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2274000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2237400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2174600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2087200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2068800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>558400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>549200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E80" s="2">
         <v>44772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44590</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44317</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44226</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44044</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43862</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43771</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43680</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E81" s="3">
         <v>13500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>29000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>52800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>75100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-28200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-60500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E83" s="3">
         <v>48600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>47000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>46800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>41200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>41600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>45900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>42900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>86000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>44000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>85600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E89" s="3">
         <v>42600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>57500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>69800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>86000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>87400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>115000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>67100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>109100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>92400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>144600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-29800</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-70300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-65900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-74800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-64400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-52500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-47400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-63300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-46200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-50000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-43400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-75800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-80700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-106000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-69300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-65200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-55200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-47400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-61300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-47200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-75500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-95500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-120700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>46700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>70900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-70500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>28200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>60400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-89600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>29800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>24600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-34400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>WOOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
         <v>44863</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44772</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44590</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44499</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44317</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44226</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44044</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43862</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43771</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43680</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1578000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1501200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1480800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1476000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1514400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1443300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1434500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1415000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1337700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1260000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2322500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1148700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1093100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2192800</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>950700</v>
+      </c>
+      <c r="E9" s="3">
         <v>903500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>886300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>868300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>878900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>848600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>835100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>818000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>768400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>718600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1326500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>650800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>620700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1256500</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>627300</v>
+      </c>
+      <c r="E10" s="3">
         <v>597700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>594500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>607700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>635500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>594700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>599400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>597000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>569300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>541400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>996000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>497900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>472400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>936300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1052,28 +1072,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>20800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>15900</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,35 +1130,38 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>500</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1453200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1430800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1426100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1431500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1381300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1361100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1388100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1288300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1214000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2241100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1107500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1069200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2147200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E18" s="3">
         <v>48000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>50000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>49900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>82900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>62000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>73400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>49400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>46000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>81400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>41200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>23900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>45600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-30500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>19800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>45200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E21" s="3">
         <v>96800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>88500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>97200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>99300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>124500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>159900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>68500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>95600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>89000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>167700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>85200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>67900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>131400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E22" s="3">
         <v>27300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>20500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>53800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>115300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>63200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>129100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E23" s="3">
         <v>21500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>30600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>33600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>63000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>99400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-33600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-39200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-83300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E24" s="3">
         <v>4200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-7400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E26" s="3">
         <v>17300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>23900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>48900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>72400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-28000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-30800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-63500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E27" s="3">
         <v>19900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>29000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>52800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>75100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-28200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-60500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>30500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-19800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-45200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E33" s="3">
         <v>19900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>29000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>52800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>75100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-28200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-60500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E35" s="3">
         <v>19900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>29000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>52800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>75100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-28200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-60500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
         <v>44863</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44772</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44590</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44499</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44317</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44226</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44044</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43862</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43771</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43680</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>201900</v>
+      </c>
+      <c r="E41" s="3">
         <v>148700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>125200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>190900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>211600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>221500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>203400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>174000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>111400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>195800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>168900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,44 +2423,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E43" s="3">
         <v>46400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>55600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>45500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>39900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>38100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>40500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>36700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,44 +2479,47 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>652400</v>
+      </c>
+      <c r="E44" s="3">
         <v>723400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>723300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>682000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>675100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>644400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>628500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>574700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>538700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>541400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>489100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,44 +2535,47 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>112100</v>
+      </c>
+      <c r="E45" s="3">
         <v>100400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>120500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>133700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>128400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>78500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>72400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>89100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>85600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>96000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>61200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,44 +2591,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1016000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1019000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1013800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1048900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1070800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>989900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>944200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>875900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>777500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>873600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>755900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,44 +2703,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2201100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2169900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2150100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2092200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2065400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2051700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1968900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1970200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1955700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1996600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2043400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,44 +2759,47 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3218900</v>
+      </c>
+      <c r="E49" s="3">
         <v>3216900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3211800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3209000</v>
       </c>
       <c r="G49" s="3">
         <v>3209000</v>
       </c>
       <c r="H49" s="3">
+        <v>3209000</v>
+      </c>
+      <c r="I49" s="3">
         <v>3208700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3208000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3204900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3205000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3205200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3205400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,44 +2927,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>176800</v>
+      </c>
+      <c r="E52" s="3">
         <v>171000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>166700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>155700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>152800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>219400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>194100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>142300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>137500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>128400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>120100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6612800</v>
+      </c>
+      <c r="E54" s="3">
         <v>6576900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6542400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6505800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6497900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6469500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6315200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6193400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6075700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6203800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6124800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,44 +3141,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>381200</v>
+      </c>
+      <c r="E57" s="3">
         <v>384600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>416600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>392700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>404000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>380200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>406700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>352400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>339500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>347800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>274200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,44 +3195,47 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E58" s="3">
         <v>22600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>22300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>21800</v>
       </c>
       <c r="G58" s="3">
         <v>21800</v>
       </c>
       <c r="H58" s="3">
+        <v>21800</v>
+      </c>
+      <c r="I58" s="3">
         <v>20300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>20200</v>
       </c>
       <c r="J58" s="3">
         <v>20200</v>
       </c>
       <c r="K58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,44 +3251,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>617300</v>
+      </c>
+      <c r="E59" s="3">
         <v>650000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>596600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>597400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>627400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>631100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>582900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>622500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>533600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>558100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>555700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,44 +3307,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1021300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1057200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1035400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1011800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1053100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1031500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1009800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>995200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>875300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>933300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>857500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,44 +3363,47 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1628300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1631300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1634300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1637400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1640400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1643400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1646500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1649500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1657700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3210300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3235900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3276,44 +3419,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1581800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1560500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1593500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1568900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1548600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1573700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1499500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1476500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1487400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1514600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1493700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4231400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4249000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4263300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4199000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4223900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4232100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4140500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4106200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4006900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5645400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5575600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,44 +3945,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E72" s="3">
         <v>200200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>180300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>166900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>142200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>113200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>60400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-800800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-804200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2381500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2327900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2279100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2306800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2274000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2237400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2174600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2087200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2068800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>558400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>549200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
         <v>44863</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44772</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44590</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44499</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44317</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44226</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44044</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43862</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43771</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43680</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E81" s="3">
         <v>19900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>29000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>52800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>75100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-28200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-60500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E83" s="3">
         <v>48000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>48600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>47000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>46800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>41200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>41600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>45900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>86000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>44000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>85600</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E89" s="3">
         <v>109400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>42600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>57500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>69800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>86000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>87400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>115000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>67100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>109100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>92400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>144600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-75900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-70300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-65900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-74800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-64400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-52500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-47400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-63300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-46200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-50000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-75800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-67600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-80700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-106000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-65900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-65200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-55200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-47400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-61300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-47200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-75500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-95500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-32100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-120700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>46700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>70900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E102" s="3">
         <v>23900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-70500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>60400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-89600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>24600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-34400</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WOOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>WOOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F7" s="2">
         <v>44954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44590</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44499</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44317</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44226</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44044</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43862</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43771</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43680</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1530700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1555900</v>
+      </c>
+      <c r="F8" s="3">
         <v>1578000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1501200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1480800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1476000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1514400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1443300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1434500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1415000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1337700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1260000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2322500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1148700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1093100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2192800</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>937700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>951400</v>
+      </c>
+      <c r="F9" s="3">
         <v>950700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>903500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>886300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>868300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>878900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>848600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>835100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>818000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>768400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>718600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1326500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>650800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>620700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1256500</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>593000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>604500</v>
+      </c>
+      <c r="F10" s="3">
         <v>627300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>597700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>594500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>607700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>635500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>594700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>599400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>597000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>569300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>541400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>996000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>497900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>472400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>936300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,16 +1081,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1075,37 +1114,43 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>20800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>20600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>15900</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,35 +1178,41 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>200</v>
-      </c>
-      <c r="N15" s="3">
-        <v>500</v>
       </c>
       <c r="O15" s="3">
         <v>200</v>
       </c>
       <c r="P15" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+      <c r="R15" s="3">
         <v>300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>500</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1528700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1453200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1430800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1426100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1431500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1381300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1361100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1388100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1288300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1214000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2241100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1107500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1069200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2147200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>27200</v>
+      </c>
+      <c r="F18" s="3">
         <v>77600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>48000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>50000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>49900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>82900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>62000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>73400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>26900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>49400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>46000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>81400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>41200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>23900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>45600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,37 +1378,39 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-10100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-30500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>19800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>45200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>300</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1352,249 +1419,279 @@
         <v>300</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>80400</v>
+      </c>
+      <c r="F21" s="3">
         <v>125200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>96800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>88500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>97200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>99300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>124500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>159900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>68500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>95600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>89000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>167700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>85200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>67900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>131400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>37200</v>
+      </c>
+      <c r="F22" s="3">
         <v>32900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>27300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>21800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>19600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>18900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>18800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>19200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>20500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>50000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>53800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>115300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>60800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>63200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>129100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F23" s="3">
         <v>42100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>21500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>18100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>30600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>33600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>63000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>99400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-33600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-19500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-39200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-83300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>14500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>6600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>10000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>9700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>14100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>27000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>10200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-7900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-5600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-7400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-19800</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F26" s="3">
         <v>27600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>17300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>11400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>20600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>23900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>48900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>72400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-28000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-12100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-30800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-63500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>32700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>19900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>13500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>24700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>29000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>52800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>75100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-23700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-7200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-60500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,37 +2118,43 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>10100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>30500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-19800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-45200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-300</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2024,81 +2163,93 @@
         <v>-300</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>32700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>19900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>13500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>24700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>29000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>52800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>75100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>7600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-23700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-7200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-60500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>32700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>19900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>13500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>24700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>29000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>52800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>75100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>7600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-23700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-7200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-60500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F38" s="2">
         <v>44954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44590</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44499</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44317</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44226</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44044</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43862</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43771</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43680</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2485,52 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>148900</v>
+      </c>
+      <c r="F41" s="3">
         <v>201900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>148700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>125200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>190900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>211600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>221500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>203400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>174000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>111400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>195800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>168900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,50 +2605,56 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45400</v>
+      </c>
+      <c r="F43" s="3">
         <v>49600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>46400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>44800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>42200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>55600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>45500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>39900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>38100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>41800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>40500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>36700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,50 +2667,56 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>675400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>667900</v>
+      </c>
+      <c r="F44" s="3">
         <v>652400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>723400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>723300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>682000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>675100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>644400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>628500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>574700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>538700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>541400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>489100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,50 +2729,56 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>114500</v>
+      </c>
+      <c r="F45" s="3">
         <v>112100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>100400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>120500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>133700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>128400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>78500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>72400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>89100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>85600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>96000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>61200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,50 +2791,56 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1024800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>976800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1016000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1019000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1013800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1048900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1070800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>989900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>944200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>875900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>777500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>873600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>755900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,50 +2915,56 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2222100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2190500</v>
+      </c>
+      <c r="F48" s="3">
         <v>2201100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2169900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2150100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2092200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2065400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2051700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1968900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1970200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1955700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1996600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2043400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,50 +2977,56 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3221700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3219500</v>
+      </c>
+      <c r="F49" s="3">
         <v>3218900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3216900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3211800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3209000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3209000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3208700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3208000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3204900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3205000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3205200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3205400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,50 +3163,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>193700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>185600</v>
+      </c>
+      <c r="F52" s="3">
         <v>176800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>171000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>166700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>155700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>152800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>219400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>194100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>142300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>137500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>128400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>120100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3287,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6662300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6572400</v>
+      </c>
+      <c r="F54" s="3">
         <v>6612800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6576900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6542400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6505800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6497900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6469500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6315200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6193400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6075700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6203800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6124800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,50 +3401,52 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>477700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>393800</v>
+      </c>
+      <c r="F57" s="3">
         <v>381200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>384600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>416600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>392700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>404000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>380200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>406700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>352400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>339500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>347800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>274200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,50 +3459,56 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F58" s="3">
         <v>22800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>22600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>22300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>21800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>21800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>20300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>20200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>20200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>27400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>27600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3254,50 +3521,56 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>592100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>597200</v>
+      </c>
+      <c r="F59" s="3">
         <v>617300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>650000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>596600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>597400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>627400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>631100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>582900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>622500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>533600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>558100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>555700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,50 +3583,56 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1074900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>996900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1021300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1057200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1035400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1011800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1053100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1031500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1009800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>995200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>875300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>933300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>857500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,50 +3645,56 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1588500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1612000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1628300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1631300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1634300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1637400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1640400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1643400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1646500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1649500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1657700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3210300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3235900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3422,50 +3707,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1584000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1562400</v>
+      </c>
+      <c r="F62" s="3">
         <v>1581800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1560500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1593500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1568900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1548600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1573700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1499500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1476500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1487400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1514600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1493700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3955,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4247500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4171300</v>
+      </c>
+      <c r="F66" s="3">
         <v>4231400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4249000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4263300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4199000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4223900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4232100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4140500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4106200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4006900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5645400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5575600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +4017,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,50 +4289,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>216500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>231100</v>
+      </c>
+      <c r="F72" s="3">
         <v>233000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>200200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>180300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>166900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>142200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>113200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>60400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-22300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-800800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-804200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4351,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4537,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2414800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2401100</v>
+      </c>
+      <c r="F76" s="3">
         <v>2381500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2327900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2279100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2306800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2274000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2237400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2174600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2087200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2068800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>558400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>549200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4599,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F80" s="2">
         <v>44954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44590</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44499</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44317</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44226</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44044</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43862</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43771</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43680</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>32700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>19900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>13500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>24700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>29000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>52800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>75100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>7600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-23700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-7200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-60500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4818,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>49300</v>
+      </c>
+      <c r="F83" s="3">
         <v>50200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>48000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>48600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>47000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>46800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>42800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>41200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>41600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>45900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>42900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>86000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>43900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>44000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>85600</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>37700</v>
+      </c>
+      <c r="F89" s="3">
         <v>136500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>109400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>42600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>57500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>69800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>86000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>87400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>115000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>67100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>109100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>92400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>144600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-29800</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5276,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-65900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-75900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-70300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-65900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-74800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-64400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-52500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-47400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-63300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-46200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-50000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-37700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-43400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-75800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-67600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-80700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-106000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-65900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-69300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-65200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-55200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-47400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-61300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-47200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-48700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-19800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-43800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-75500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-4700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-7100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-15300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-3700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-7200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-95500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-32100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-19100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-120700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>46700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>70900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="F102" s="3">
         <v>62100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>23900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-70500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-23700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>17200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>28200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>60400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-89600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>29800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>24600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-34400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
